--- a/data/Silicon labs internship/1.xlsx
+++ b/data/Silicon labs internship/1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\data\Silicon labs internship\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\Gender-classification-for-jobs\data\Silicon labs internship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF04154-9B4A-45BD-AB10-88A036652C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B42A8D1-0379-4ED8-8CA7-50C2932B0928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>21MVD1037</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Gokulnath D</t>
   </si>
@@ -37,7 +34,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -47,18 +44,12 @@
     </font>
     <font>
       <sz val="13.5"/>
-      <color rgb="FF9C0006"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="13.5"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -71,34 +62,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -118,12 +88,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -406,20 +373,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
